--- a/testSolutions/VerfrühtesAbbiegenaufWaldFail.xlsx
+++ b/testSolutions/VerfrühtesAbbiegenaufWaldFail.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Code</t>
   </si>
@@ -52,6 +52,9 @@
   </si>
   <si>
     <t>Felswand</t>
+  </si>
+  <si>
+    <t>Zeigt, dass der Algorithmus nicht immer den optimalsten weg nimmt. In Gelb der optimale weg und schwarz umrahmt der weg, den der Algorithmus wählt.</t>
   </si>
 </sst>
 </file>
@@ -381,7 +384,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -496,6 +499,65 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -541,10 +603,15 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -903,7 +970,7 @@
   <dimension ref="A1:O23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="E10" sqref="E10:H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1284,7 +1351,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>5</v>
       </c>
@@ -1331,7 +1398,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>5</v>
       </c>
@@ -1350,10 +1417,10 @@
       <c r="F10" s="2">
         <v>3</v>
       </c>
-      <c r="G10" s="2">
-        <v>5</v>
-      </c>
-      <c r="H10" s="2">
+      <c r="G10" s="7">
+        <v>5</v>
+      </c>
+      <c r="H10" s="6">
         <v>5</v>
       </c>
       <c r="I10">
@@ -1378,7 +1445,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>5</v>
       </c>
@@ -1391,13 +1458,13 @@
       <c r="D11">
         <v>5</v>
       </c>
-      <c r="E11" s="2">
-        <v>5</v>
-      </c>
-      <c r="F11" s="2">
-        <v>5</v>
-      </c>
-      <c r="G11" s="1">
+      <c r="E11" s="3">
+        <v>5</v>
+      </c>
+      <c r="F11" s="4">
+        <v>5</v>
+      </c>
+      <c r="G11" s="5">
         <v>5</v>
       </c>
       <c r="H11" s="1">
@@ -1674,6 +1741,9 @@
       <c r="C20">
         <v>3</v>
       </c>
+      <c r="E20" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21">
@@ -1710,6 +1780,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1723,6 +1794,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101009FBF8661AD2E354FAE87329803412157" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c16c4dd9e2e32f088242a579a7e24e23">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="1e44a191-92cd-4afa-9687-f5bf1469df19" xmlns:ns4="6b5e8f27-ce12-4388-9f1e-22f0df822b36" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="25951810f8527d332c4c5b5f678f3a0e" ns3:_="" ns4:_="">
     <xsd:import namespace="1e44a191-92cd-4afa-9687-f5bf1469df19"/>
@@ -1945,12 +2022,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3637E381-8704-4197-AF5A-75176E72E664}">
   <ds:schemaRefs>
@@ -1960,6 +2031,23 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2B7A7860-24AB-406E-9A2D-2F086B0D696F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="1e44a191-92cd-4afa-9687-f5bf1469df19"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="6b5e8f27-ce12-4388-9f1e-22f0df822b36"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{09CCDEC3-F5E9-415E-BBDE-0CBC8BEBA333}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1976,21 +2064,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2B7A7860-24AB-406E-9A2D-2F086B0D696F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="1e44a191-92cd-4afa-9687-f5bf1469df19"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="6b5e8f27-ce12-4388-9f1e-22f0df822b36"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>